--- a/MOMAH_Accounts_followers.xlsx
+++ b/MOMAH_Accounts_followers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4086</v>
+        <v>4083</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6473</v>
+        <v>6468</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7899</v>
+        <v>7885</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3993</v>
+        <v>3991</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31900</v>
+        <v>31800</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4297</v>
+        <v>4289</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6316</v>
+        <v>6311</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7210</v>
+        <v>7205</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3992</v>
+        <v>3983</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6856</v>
+        <v>6843</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4214</v>
+        <v>4207</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5073</v>
+        <v>5069</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5659</v>
+        <v>5646</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4982</v>
+        <v>4977</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5578</v>
+        <v>5572</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4053</v>
+        <v>4044</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5953</v>
+        <v>5954</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6732</v>
+        <v>6725</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6223</v>
+        <v>6222</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5103</v>
+        <v>5098</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4933</v>
+        <v>4932</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3956</v>
+        <v>3950</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1640,9 +1640,5104 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E49" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://x.com/alshebah22</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>alshebah22</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://x.com/alshebah22</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1004</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://x.com/alqalibah</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>alqalibah</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://x.com/alqalibah</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1581</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://x.com/beda1432</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>beda1432</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://x.com/beda1432</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2059</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://x.com/bumluj</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>bumluj</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://x.com/bumluj</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>7147</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://x.com/AlwajehMCL</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AlwajehMCL</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://x.com/AlwajehMCL</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>4686</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://x.com/b_tayma</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>b_tayma</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://x.com/b_tayma</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>2887</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://x.com/b_haql</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>b_haql</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://x.com/b_haql</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2047</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://x.com/dubam1</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dubam1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://x.com/dubam1</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>10300</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://x.com/qatif_mun</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>qatif_mun</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://x.com/qatif_mun</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>15600</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://x.com/Alkhafji_mun</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Alkhafji_mun</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://x.com/Alkhafji_mun</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5858</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://x.com/abqaiq_mun</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>abqaiq_mun</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://x.com/abqaiq_mun</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>suspended</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://x.com/RasTanura_mun</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RasTanura_mun</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://x.com/RasTanura_mun</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>4836</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://x.com/jubail_mun</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>jubail_mun</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://x.com/jubail_mun</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>27800</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://x.com/Nairyiah_mun</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nairyiah_mun</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://x.com/Nairyiah_mun</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>4766</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://x.com/Qaryaalulya_mun</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Qaryaalulya_mun</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://x.com/Qaryaalulya_mun</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2671</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://x.com/AlRafiah_mun</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>AlRafiah_mun</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://x.com/AlRafiah_mun</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2089</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://x.com/Malijah_mun</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Malijah_mun</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://x.com/Malijah_mun</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2033</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://x.com/allhaba_mun</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>allhaba_mun</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://x.com/allhaba_mun</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1387</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://x.com/Assarar_mun</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Assarar_mun</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://x.com/Assarar_mun</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2047</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://x.com/Urayarah_mun</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Urayarah_mun</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://x.com/Urayarah_mun</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://x.com/Qulayyib_mun</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Qulayyib_mun</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://x.com/Qulayyib_mun</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1570</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://x.com/GofBaniHajermun</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GofBaniHajermun</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://x.com/GofBaniHajermun</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2363</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://x.com/AinDar_mun</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>AinDar_mun</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://x.com/AinDar_mun</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2039</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://x.com/sjarahmunicipal</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sjarahmunicipal</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://x.com/sjarahmunicipal</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://x.com/m_a_g6</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>m_a_g6</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://x.com/m_a_g6</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>3262</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://x.com/Alkamel_Mun</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Alkamel_Mun</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://x.com/Alkamel_Mun</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2195</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://x.com/khulaisB</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>khulaisB</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://x.com/khulaisB</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>4558</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_hajur</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>mun_hajur</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_hajur</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1791</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiahallith</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>baladiahallith</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiahallith</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>4907</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://x.com/alshwaq</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>alshwaq</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://x.com/alshwaq</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>suspended</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://x.com/ghamiqa</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ghamiqa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://x.com/ghamiqa</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>3260</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://x.com/qbaladi</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>qbaladi</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://x.com/qbaladi</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>15100</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://x.com/bladetalquz</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>bladetalquz</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://x.com/bladetalquz</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://x.com/AdhamBaladiah</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>AdhamBaladiah</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://x.com/AdhamBaladiah</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>5971</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiat_hali</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>baladiat_hali</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiat_hali</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://x.com/MUNIC_RABEGH</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MUNIC_RABEGH</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://x.com/MUNIC_RABEGH</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://x.com/almuzailif</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>almuzailif</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://x.com/almuzailif</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>5605</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://x.com/ASMunicipality</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ASMunicipality</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://x.com/ASMunicipality</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://x.com/ALselselah1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ALselselah1</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://x.com/ALselselah1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://x.com/hanakiyh</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>hanakiyh</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://x.com/hanakiyh</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://x.com/slali_municipal</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>slali_municipal</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://x.com/slali_municipal</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://x.com/baladyatalula</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>baladyatalula</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://x.com/baladyatalula</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>5090</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://x.com/alnakheel6</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>alnakheel6</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://x.com/alnakheel6</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://x.com/alais_municipal</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>alais_municipal</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://x.com/alais_municipal</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://x.com/msejed2016</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>msejed2016</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://x.com/msejed2016</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://x.com/tharbmunicipal1</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>tharbmunicipal1</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://x.com/tharbmunicipal1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://x.com/BADRMUNICIPALIT</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BADRMUNICIPALIT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://x.com/BADRMUNICIPALIT</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_yanbu</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>mun_yanbu</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_yanbu</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>17400</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://x.com/hallyanbualnakl</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>hallyanbualnakl</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://x.com/hallyanbualnakl</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://x.com/khaybir1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>khaybir1</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://x.com/khaybir1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://x.com/alhusoo</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>alhusoo</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://x.com/alhusoo</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://x.com/B_WADI_ALFRA</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>B_WADI_ALFRA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://x.com/B_WADI_ALFRA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://x.com/swergiah</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>swergiah</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://x.com/swergiah</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://x.com/b_almahed</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>b_almahed</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://x.com/b_almahed</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://x.com/MAl3shash</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>MAl3shash</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://x.com/MAl3shash</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://x.com/allshamal</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>allshamal</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://x.com/allshamal</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://x.com/Muni_balj</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Muni_balj</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://x.com/Muni_balj</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://x.com/almandqmuncipa1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>almandqmuncipa1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://x.com/almandqmuncipa1</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>5092</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://x.com/amgovsa</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>amgovsa</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://x.com/amgovsa</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>4980</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_alqara</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>mun_alqara</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_alqara</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>3461</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://x.com/mgovsa</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>mgovsa</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://x.com/mgovsa</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>5830</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://x.com/m_qelwah</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>m_qelwah</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://x.com/m_qelwah</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>5032</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://x.com/hajra2030</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>hajra2030</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://x.com/hajra2030</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>3288</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_gh_alzinad</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>mun_gh_alzinad</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_gh_alzinad</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>2447</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://x.com/bannihassan</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>bannihassan</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://x.com/bannihassan</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>2571</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://x.com/MaeshuqMunicipa</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MaeshuqMunicipa</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://x.com/MaeshuqMunicipa</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>2089</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://x.com/bbk1421</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>bbk1421</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://x.com/bbk1421</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>4810</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://x.com/BSharoorh</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>BSharoorh</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://x.com/BSharoorh</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>4920</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://x.com/Muni_baljmun_yadamah</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Muni_baljmun_yadamah</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://x.com/Muni_baljmun_yadamah</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://x.com/BldiatThar</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>BldiatThar</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://x.com/BldiatThar</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1784</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://x.com/bsoltanh</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>bsoltanh</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://x.com/bsoltanh</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://x.com/Bkhubash</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Bkhubash</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://x.com/Bkhubash</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://x.com/b_Wadiah</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>b_Wadiah</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://x.com/b_Wadiah</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>2418</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://x.com/baldiat_habona</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>baldiat_habona</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://x.com/baldiat_habona</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>2475</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://x.com/husainiah2</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>husainiah2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://x.com/husainiah2</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>3377</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://x.com/Saddawi1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Saddawi1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://x.com/Saddawi1</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1511</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://x.com/aldhiybia_mun</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>aldhiybia_mun</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://x.com/aldhiybia_mun</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://x.com/Qaisumahmun</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Qaisumahmun</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://x.com/Qaisumahmun</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>3356</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://x.com/Alsairabaladia</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Alsairabaladia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://x.com/Alsairabaladia</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1195</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://x.com/jumumSA</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>jumumSA</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://x.com/jumumSA</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>5157</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://x.com/osfanfit</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>osfanfit</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://x.com/osfanfit</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>3933</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://x.com/madrakah1432</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>madrakah1432</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://x.com/madrakah1432</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1895</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://x.com/Terba2030</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Terba2030</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://x.com/Terba2030</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1854</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://x.com/BaldeiK</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>BaldeiK</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://x.com/BaldeiK</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1723</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://x.com/R_Municipality</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>R_Municipality</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://x.com/R_Municipality</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4524</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://x.com/m_e5x</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>m_e5x</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://x.com/m_e5x</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://x.com/bladyh_missan</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>bladyh_missan</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://x.com/bladyh_missan</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://x.com/YabreenM</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>YabreenM</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://x.com/YabreenM</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>180</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://x.com/albtha1430</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>albtha1430</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://x.com/albtha1430</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://x.com/SalwaMunicipal</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SalwaMunicipal</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://x.com/SalwaMunicipal</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://x.com/mumubarraz</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>mumubarraz</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://x.com/mumubarraz</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1139</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://x.com/abuajram_1</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>abuajram_1</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://x.com/abuajram_1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://x.com/Zaloume</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Zaloume</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://x.com/Zaloume</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1599</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://x.com/Esawias_MUN</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Esawias_MUN</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://x.com/Esawias_MUN</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://x.com/PaldetSowayr</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>PaldetSowayr</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://x.com/PaldetSowayr</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://x.com/alnasfamunicipa</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>alnasfamunicipa</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://x.com/alnasfamunicipa</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://x.com/m_alhaditha</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>m_alhaditha</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://x.com/m_alhaditha</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://x.com/btabrjal</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>btabrjal</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://x.com/btabrjal</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>7676</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://x.com/GuryatM</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>GuryatM</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://x.com/GuryatM</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>14700</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://x.com/BDJ_KSA</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>BDJ_KSA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://x.com/BDJ_KSA</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://x.com/BALADiA_SHAMLY</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>BALADiA_SHAMLY</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://x.com/BALADiA_SHAMLY</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1665</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://x.com/baladia_sumira</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>baladia_sumira</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://x.com/baladia_sumira</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://x.com/alhait_mun</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>alhait_mun</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://x.com/alhait_mun</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://x.com/Alkahfa_Municip</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Alkahfa_Municip</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://x.com/Alkahfa_Municip</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1232</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://x.com/moqqaq_min</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>moqqaq_min</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://x.com/moqqaq_min</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2104</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://x.com/alajfarbaladia</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>alajfarbaladia</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://x.com/alajfarbaladia</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>1469</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://x.com/Ba_alghazala</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Ba_alghazala</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://x.com/Ba_alghazala</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1492</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://x.com/tourbahhail</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>tourbahhail</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://x.com/tourbahhail</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1885</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiatALrwdah</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>baladiatALrwdah</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiatALrwdah</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1383</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://x.com/FaidBaladia</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>FaidBaladia</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://x.com/FaidBaladia</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1097</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://x.com/baladia_Alslemy</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>baladia_Alslemy</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://x.com/baladia_Alslemy</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1544</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://x.com/baladehbaqa</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>baladehbaqa</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://x.com/baladehbaqa</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>2697</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://x.com/relation_1429</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>relation_1429</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://x.com/relation_1429</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1546</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://x.com/anbwan</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>anbwan</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://x.com/anbwan</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://x.com/bjubbah</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>bjubbah</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://x.com/bjubbah</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>2190</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://x.com/alkhitah</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>alkhitah</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://x.com/alkhitah</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://x.com/baladihlinah</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>baladihlinah</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://x.com/baladihlinah</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>2232</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://x.com/IbnShuraim</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>IbnShuraim</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://x.com/IbnShuraim</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1837</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://x.com/mu_awiqela</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>mu_awiqela</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://x.com/mu_awiqela</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>3356</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://x.com/brh14301</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>brh14301</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://x.com/brh14301</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>suspended</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://x.com/baiadeytsjhouba</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>baiadeytsjhouba</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://x.com/baiadeytsjhouba</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://x.com/ummkhonsar</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ummkhonsar</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://x.com/ummkhonsar</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1388</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://x.com/TaletEltemyat</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>TaletEltemyat</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://x.com/TaletEltemyat</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>2589</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://x.com/turaif_mu</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>turaif_mu</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://x.com/turaif_mu</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>4197</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://x.com/Rafha_Mu</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Rafha_Mu</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://x.com/Rafha_Mu</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>7489</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://x.com/onaizah_muni</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>onaizah_muni</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://x.com/onaizah_muni</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>32500</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://x.com/bkeryah</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>bkeryah</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://x.com/bkeryah</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>7699</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://x.com/fwulq1</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>fwulq1</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://x.com/fwulq1</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://x.com/m_riyadk</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>m_riyadk</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://x.com/m_riyadk</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>3515</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://x.com/albosor_m</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>albosor_m</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://x.com/albosor_m</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>3515</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://x.com/aldaheriyah</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>aldaheriyah</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://x.com/aldaheriyah</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1647</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://x.com/Bquarah</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Bquarah</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://x.com/Bquarah</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>2284</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://x.com/UyonALJiwa</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>UyonALJiwa</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://x.com/UyonALJiwa</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>4322</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://x.com/Mdknah</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Mdknah</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://x.com/Mdknah</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>2618</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://x.com/albadaya_m</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>albadaya_m</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://x.com/albadaya_m</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>7016</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://x.com/AbanatM</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>AbanatM</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://x.com/AbanatM</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>2462</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://x.com/q_ibn</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>q_ibn</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://x.com/q_ibn</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>2211</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://x.com/bqsaiba</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>bqsaiba</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://x.com/bqsaiba</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://x.com/Mun_Alrass</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Mun_Alrass</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://x.com/Mun_Alrass</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>12700</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://x.com/Sheri_mun</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sheri_mun</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://x.com/Sheri_mun</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1849</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://x.com/khbraMunicipal</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>khbraMunicipal</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://x.com/khbraMunicipal</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>4357</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://x.com/QubhMunicipal</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>QubhMunicipal</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://x.com/QubhMunicipal</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiahMt</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>baladiahMt</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiahMt</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>8153</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://x.com/nbha7</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>nbha7</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://x.com/nbha7</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>3974</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://x.com/oqlla</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>oqlla</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://x.com/oqlla</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>4007</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://x.com/dharyah</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>dharyah</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://x.com/dharyah</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>4442</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_alasyah</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>mun_alasyah</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://x.com/mun_alasyah</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>4428</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://x.com/muicipalityamar</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>muicipalityamar</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://x.com/muicipalityamar</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1810</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://x.com/alfawara_gov_sa</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>alfawara_gov_sa</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://x.com/alfawara_gov_sa</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>2670</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://x.com/aldlemiyah</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>aldlemiyah</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://x.com/aldlemiyah</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>7559</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://x.com/KHM_SA</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>KHM_SA</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://x.com/KHM_SA</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>22800</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://x.com/BNamas2016</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>BNamas2016</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://x.com/BNamas2016</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>11600</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://x.com/Baladia_Besha</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Baladia_Besha</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://x.com/Baladia_Besha</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://x.com/MAMunicipality</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>MAMunicipality</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://x.com/MAMunicipality</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>14200</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://x.com/b_tanomah</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>b_tanomah</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://x.com/b_tanomah</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://x.com/ballasmermunic1</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ballasmermunic1</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://x.com/ballasmermunic1</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>120</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://x.com/bahrs20</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>bahrs20</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://x.com/bahrs20</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>2971</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://x.com/BaladiaDhahran</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>BaladiaDhahran</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://x.com/BaladiaDhahran</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://x.com/b__alhazmi</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>b__alhazmi</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://x.com/b__alhazmi</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>913</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://x.com/amwah_ksa</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>amwah_ksa</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://x.com/amwah_ksa</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>1773</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://x.com/tathleethM</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>tathleethM</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://x.com/tathleethM</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>4294</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://x.com/ar_municipality</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ar_municipality</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://x.com/ar_municipality</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>7118</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://x.com/B_ALMJARDH</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>B_ALMJARDH</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://x.com/B_ALMJARDH</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>5570</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://x.com/naqi_1</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>naqi_1</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://x.com/naqi_1</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>2688</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://x.com/alharjjh</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>alharjjh</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://x.com/alharjjh</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>2864</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://x.com/bllhmr1</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>bllhmr1</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://x.com/bllhmr1</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>4139</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://x.com/AL_SAHIL1</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>AL_SAHIL1</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://x.com/AL_SAHIL1</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>3696</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://x.com/wm_gov</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>wm_gov</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://x.com/wm_gov</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>4163</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://x.com/SamakGov</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>SamakGov</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://x.com/SamakGov</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>2948</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://x.com/Bniamr</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Bniamr</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://x.com/Bniamr</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>5050</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://x.com/albirk2008</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>albirk2008</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://x.com/albirk2008</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>7623</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://x.com/704_albshair</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>704_albshair</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://x.com/704_albshair</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>5463</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://x.com/baladia_barg</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>baladia_barg</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://x.com/baladia_barg</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>not_found</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://x.com/bladihqana</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>bladihqana</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://x.com/bladihqana</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>3580</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://x.com/wadih_hashbal</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>wadih_hashbal</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://x.com/wadih_hashbal</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>4209</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiasubikha</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>baladiasubikha</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://x.com/baladiasubikha</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>1767</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://x.com/BaladiahFarsha</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>BaladiahFarsha</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://x.com/BaladiahFarsha</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>2264</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://x.com/sarat_abedah</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>sarat_abedah</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://x.com/sarat_abedah</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>4438</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://x.com/ttga1431</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ttga1431</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://x.com/ttga1431</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>2346</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://x.com/BaladiaTareeb</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>BaladiaTareeb</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://x.com/BaladiaTareeb</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>2878</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://x.com/AL_RABOA</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>AL_RABOA</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://x.com/AL_RABOA</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://x.com/baladia_blqarn</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>baladia_blqarn</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://x.com/baladia_blqarn</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>5432</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://x.com/sabya_city</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>sabya_city</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://x.com/sabya_city</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>5717</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://x.com/Samitahsa</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Samitahsa</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://x.com/Samitahsa</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>6854</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://x.com/algofl_</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>algofl_</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://x.com/algofl_</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>1716</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://x.com/balditalrith</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>balditalrith</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://x.com/balditalrith</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>1409</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://x.com/baladaalahd</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>baladaalahd</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://x.com/baladaalahd</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>4271</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://x.com/abuarish_sa</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>abuarish_sa</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://x.com/abuarish_sa</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>4385</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://x.com/alshuqaiq_bldya</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>alshuqaiq_bldya</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://x.com/alshuqaiq_bldya</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://x.com/ardhmunicipal</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ardhmunicipal</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://x.com/ardhmunicipal</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>4039</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://x.com/farasan_muni</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>farasan_muni</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://x.com/farasan_muni</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>1824</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://x.com/Bish_Mun</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Bish_Mun</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://x.com/Bish_Mun</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>3499</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://x.com/ALMADAYA_SA</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ALMADAYA_SA</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://x.com/ALMADAYA_SA</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>2177</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://x.com/alsahe_sa</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>alsahe_sa</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://x.com/alsahe_sa</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>2160</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://x.com/almowsam</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>almowsam</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://x.com/almowsam</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1939</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://x.com//alaydabi</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>alaydabi</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://x.com/alaydabi</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>3710</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://x.com/harop_municiblt</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>harop_municiblt</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://x.com/harop_municiblt</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>2516</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://x.com/damad702</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>damad702</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://x.com/damad702</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>2364</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://x.com/Baldiat_Alhorth</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Baldiat_Alhorth</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://x.com/Baldiat_Alhorth</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>1927</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://x.com/Balalyah</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Balalyah</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://x.com/Balalyah</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>1825</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://x.com/gozaljaferah</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>gozaljaferah</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://x.com/gozaljaferah</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://x.com/altwalsa</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>altwalsa</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://x.com/altwalsa</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>2730</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://x.com/baldit_aldarb</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>baldit_aldarb</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://x.com/baldit_aldarb</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>2984</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://x.com/faifa_muni</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>faifa_muni</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://x.com/faifa_muni</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://x.com/balhago</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>balhago</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://x.com/balhago</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>2411</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://x.com/wadijazan_sa</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>wadijazan_sa</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://x.com/wadijazan_sa</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>3513</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://x.com/muni_aldair</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>muni_aldair</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://x.com/muni_aldair</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>4945</v>
+      </c>
+      <c r="E256" t="inlineStr">
         <is>
           <t>success</t>
         </is>
